--- a/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -58,6 +58,36 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um0317.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve been away a while,\nand we just got back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While we were gone, I hear\n[CS:N]Wigglytuff[CR]\'s Guild went on an expedition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tch! That\'s disappointing.[K]\nIf we would have known about it, we would\nhave asked to tag along.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нас не было некоторое время\nи мы только что вернулись.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пока нас не было, Гильдия\n[CS:N]Виглитаффа[CR] отправлялась в экспедицию?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эх! Какая жалость.[K] Если бы мы\nо ней знали, мы бы напросились к вам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàò îå áúìï îåëïóïñïå âñåíÿ\né íú óïìûëï œóï âåñîôìéòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëà îàò îå áúìï, Ãéìûäéÿ\n[CS:N]Âéãìéóàõõà[CR] ïóðñàâìÿìàòû â üëòðåäéøéý?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üö! Ëàëàÿ çàìïòóû.[K] Åòìé áú íú\nï îåê èîàìé, íú áú îàðñïòéìéòû ë âàí.</t>
   </si>
 </sst>
 </file>
@@ -88,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -120,11 +150,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -136,6 +175,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,20 +514,65 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>211</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>183</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>186</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>189</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -88,6 +88,84 @@
   </si>
   <si>
     <t xml:space="preserve"> Üö! Ëàëàÿ çàìïòóû.[K] Åòìé áú íú\nï îåê èîàìé, íú áú îàðñïòéìéòû ë âàí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Want to hear what we\'re up to?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re on the hunt for the [CS:I]Golden\nMask[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s an ancient mask from a\nlong-lost civilization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Would you two know anything\nabout it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хочешь знать, что мы ищем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы охотимся за [CS:I]Золотой Маской[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это древняя маска давно\nисчезнувшей цивилизации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы ребята, знаете что-нибудь\nо ней?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïœåšû èîàóû, œóï íú éþåí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïöïóéíòÿ èà [CS:I]Èïìïóïê Íàòëïê[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï äñåâîÿÿ íàòëà äàâîï\néòœåèîôâšåê øéâéìéèàøéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ñåáÿóà, èîàåóå œóï-îéáôäû\nï îåê?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1204.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1405.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I won on the first [CS:I]Prize Ticket[CR]\nI got.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It must be beginner\'s luck.\nHa ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я получил выигрыш с самого\nпервого [CS:I]Призового Билета[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть, это удача новичка.\nХа-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïìôœéì âúéãñúš ò òàíïãï\nðåñâïãï [CS:I]Ðñéèïâïãï Áéìåóà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû, üóï ôäàœà îïâéœëà.\nÖà-öà-öà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1505.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1614.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No word from the great\n[CS:N]Dusknoir[CR] yet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> От великого [CS:N]Даскнуара[CR] ещё не было\nвестей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïó âåìéëïãï [CS:N]Äàòëîôàñà[CR] åþæ îå áúìï\nâåòóåê?</t>
   </si>
 </sst>
 </file>
@@ -463,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,17 +640,132 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>189</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>155</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3">
+        <v>158</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>161</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>164</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>123</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5">
+        <v>126</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3">
+        <v>104</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïó âåìéëïãï [CS:N]Äàòëîôàñà[CR] åþæ îå áúìï\nâåòóåê?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The [CS:P]Hidden Land[CR]?[K] No, I can\'t say\nI\'ve heard of it...[K] However…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s the sort of name that\ngets an explorer\'s pulse pounding![K] Oh, the\n[CS:P]Hidden Land[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Сокрытые Земли[CR]?[K] Нет, не могу\nсказать, что я что-то о них знаю...[K]\nВпрочем...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Òïëñúóúå Èåíìé[CR]?[K] Îåó, îå íïãô\nòëàèàóû, œóï ÿ œóï-óï ï îéö èîàý...[K]\nÂðñïœåí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это одно из тех самых названий, что\nбудоражат дух приключений![K] О, [CS:P]Сокрытые\nЗемли[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ïäîï éè óåö òàíúö îàèâàîéê, œóï\náôäïñàçàó äôö ðñéëìýœåîéê![K] Ï, [CS:P]Òïëñúóúå\nÈåíìé[CR]!</t>
   </si>
 </sst>
 </file>
@@ -196,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -237,11 +258,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -259,6 +291,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,20 +790,51 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>104</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3">
+        <v>82</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>85</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -187,6 +187,36 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï ïäîï éè óåö òàíúö îàèâàîéê, œóï\náôäïñàçàó äôö ðñéëìýœåîéê![K] Ï, [CS:P]Òïëñúóúå\nÈåíìé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For some reason, no sunlight\nfalls on [CS:P]Luminous Spring[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Huh? Why\'s that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, why would I know that?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> По какой-то причине, на [CS:P]Сияющий\nИсточник[CR] не светит солнце.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Что? Почему?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, а я то откуда знаю?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðï ëàëïê-óï ðñéœéîå, îà [CS:P]Òéÿýþéê\nÉòóïœîéë[CR] îå òâåóéó òïìîøå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Œóï? Ðïœåíô?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, à ÿ óï ïóëôäà èîàý?</t>
   </si>
 </sst>
 </file>
@@ -579,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,17 +854,63 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5">
         <v>85</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Îô, à ÿ óï ïóëôäà èîàý?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tch! I blew it![K] I should\'ve hit\nthem up for autographs!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тьфу! Вот я растяпа![K] Надо было\nпопросить у них автографы!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óûõô! Âïó ÿ ñàòóÿðà![K] Îàäï áúìï\nðïðñïòéóû ô îéö àâóïãñàõú!</t>
   </si>
 </sst>
 </file>
@@ -609,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,7 +897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>60</v>
       </c>
@@ -899,18 +911,36 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5">
         <v>63</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сидот.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Óûõô! Âïó ÿ ñàòóÿðà![K] Îàäï áúìï\nðïðñïòéóû ô îéö àâóïãñàõú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two are something else!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2211.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы двое, просто нечто!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äâïå, ðñïòóï îåœóï!</t>
   </si>
 </sst>
 </file>
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,20 +939,37 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="8" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
